--- a/code/Data node failure.xlsx
+++ b/code/Data node failure.xlsx
@@ -457,13 +457,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -471,13 +471,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -485,13 +485,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -499,13 +499,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -516,10 +516,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -527,13 +527,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -544,10 +544,10 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -558,10 +558,10 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -569,13 +569,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C10" t="n">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -583,13 +583,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -597,13 +597,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C12" t="n">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -614,10 +614,10 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" t="n">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -625,13 +625,13 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" t="n">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -639,13 +639,13 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B15" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -653,13 +653,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B16" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -667,13 +667,13 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -681,13 +681,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C18" t="n">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -698,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" t="n">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C20" t="n">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -723,13 +723,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B21" t="n">
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B22" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="n">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -751,13 +751,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B23" t="n">
         <v>19</v>
       </c>
       <c r="C23" t="n">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -765,13 +765,13 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C24" t="n">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -779,13 +779,13 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B25" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -793,13 +793,13 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B26" t="n">
         <v>20</v>
       </c>
       <c r="C26" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -807,13 +807,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B27" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C27" t="n">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -821,13 +821,13 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B28" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -835,13 +835,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B29" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C29" t="n">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -849,13 +849,13 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C30" t="n">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -863,13 +863,13 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B31" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C31" t="n">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C32" t="n">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -891,13 +891,13 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B33" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C33" t="n">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B34" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -919,13 +919,13 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B35" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C35" t="n">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -933,13 +933,13 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C36" t="n">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C37" t="n">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -961,13 +961,13 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B38" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C38" t="n">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -975,13 +975,13 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C39" t="n">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -989,13 +989,13 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -1003,13 +1003,13 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B41" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C41" t="n">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -1017,13 +1017,13 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -1031,13 +1031,13 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C43" t="n">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -1045,13 +1045,13 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C44" t="n">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -1059,13 +1059,13 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C45" t="n">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -1073,13 +1073,13 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" t="n">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -1087,13 +1087,13 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B47" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C47" t="n">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -1115,13 +1115,13 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B49" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C49" t="n">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -1129,13 +1129,13 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C50" t="n">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -1143,13 +1143,13 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B51" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C51" t="n">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -1157,13 +1157,13 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -1171,13 +1171,13 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B53" t="n">
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -1185,13 +1185,13 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B54" t="n">
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -1199,13 +1199,13 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B55" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -1213,13 +1213,13 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B56" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -1227,13 +1227,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B57" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -1241,13 +1241,13 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -1255,13 +1255,13 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C59" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -1269,13 +1269,13 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -1283,13 +1283,13 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B61" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -1297,13 +1297,13 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -1325,13 +1325,13 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -1395,13 +1395,13 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -1409,13 +1409,13 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -1437,13 +1437,13 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -1451,13 +1451,13 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -1465,13 +1465,13 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -1479,13 +1479,13 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -1493,13 +1493,13 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -1507,13 +1507,13 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -1521,13 +1521,13 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -1535,13 +1535,13 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
@@ -1549,13 +1549,13 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
@@ -1563,13 +1563,13 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
@@ -1577,13 +1577,13 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -1591,13 +1591,13 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B83" t="n">
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -1605,13 +1605,13 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B84" t="n">
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B85" t="n">
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -1633,13 +1633,13 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B86" t="n">
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -1647,13 +1647,13 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B87" t="n">
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -1661,13 +1661,13 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -1675,13 +1675,13 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B89" t="n">
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -1689,13 +1689,13 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -1703,13 +1703,13 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -1717,13 +1717,13 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -1731,13 +1731,13 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -1745,13 +1745,13 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -1759,13 +1759,13 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -1773,13 +1773,13 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -1787,13 +1787,13 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -1801,13 +1801,13 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -1829,13 +1829,13 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -1857,13 +1857,13 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -1871,13 +1871,13 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
@@ -1885,13 +1885,13 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
@@ -1899,13 +1899,13 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
@@ -1913,13 +1913,13 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B106" t="n">
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -1927,13 +1927,13 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B107" t="n">
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D107" t="n">
         <v>0</v>
@@ -1941,13 +1941,13 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
@@ -1955,13 +1955,13 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
@@ -1969,13 +1969,13 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="D110" t="n">
         <v>0</v>
@@ -1983,13 +1983,13 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -1997,13 +1997,13 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
@@ -2011,13 +2011,13 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
@@ -2025,13 +2025,13 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
@@ -2039,13 +2039,13 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
@@ -2053,13 +2053,13 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
@@ -2067,13 +2067,13 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="D117" t="n">
         <v>0</v>
@@ -2081,13 +2081,13 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="D118" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -2109,13 +2109,13 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
@@ -2123,13 +2123,13 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
@@ -2137,13 +2137,13 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="D122" t="n">
         <v>0</v>
@@ -2151,13 +2151,13 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="D123" t="n">
         <v>0</v>
@@ -2165,13 +2165,13 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="D124" t="n">
         <v>0</v>
@@ -2179,13 +2179,13 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
@@ -2193,13 +2193,13 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="D126" t="n">
         <v>0</v>
@@ -2207,13 +2207,13 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="D127" t="n">
         <v>0</v>
@@ -2221,13 +2221,13 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
@@ -2235,13 +2235,13 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D129" t="n">
         <v>0</v>
@@ -2249,13 +2249,13 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
@@ -2263,13 +2263,13 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D131" t="n">
         <v>0</v>
@@ -2277,13 +2277,13 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="D132" t="n">
         <v>0</v>
@@ -2291,13 +2291,13 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="D133" t="n">
         <v>0</v>
@@ -2305,13 +2305,13 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="D134" t="n">
         <v>0</v>
@@ -2319,13 +2319,13 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="D135" t="n">
         <v>0</v>
@@ -2333,13 +2333,13 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
@@ -2347,13 +2347,13 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="D137" t="n">
         <v>0</v>
@@ -2361,13 +2361,13 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="D138" t="n">
         <v>0</v>
@@ -2375,13 +2375,13 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
@@ -2389,13 +2389,13 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D140" t="n">
         <v>0</v>
@@ -2403,13 +2403,13 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B141" t="n">
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
@@ -2417,13 +2417,13 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B142" t="n">
         <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D142" t="n">
         <v>0</v>
@@ -2431,13 +2431,13 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B143" t="n">
         <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="D143" t="n">
         <v>0</v>
@@ -2445,13 +2445,13 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B144" t="n">
         <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D144" t="n">
         <v>0</v>
@@ -2459,13 +2459,13 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B145" t="n">
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D145" t="n">
         <v>0</v>
@@ -2473,13 +2473,13 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B146" t="n">
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D146" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B147" t="n">
         <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D147" t="n">
         <v>0</v>
@@ -2501,13 +2501,13 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B148" t="n">
         <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D148" t="n">
         <v>0</v>
@@ -2515,13 +2515,13 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B149" t="n">
         <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B150" t="n">
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D150" t="n">
         <v>0</v>
@@ -2543,13 +2543,13 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B151" t="n">
         <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D151" t="n">
         <v>0</v>
@@ -2557,13 +2557,13 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B152" t="n">
         <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D152" t="n">
         <v>0</v>
@@ -2571,13 +2571,13 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B153" t="n">
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
@@ -2585,13 +2585,13 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B154" t="n">
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D154" t="n">
         <v>0</v>
@@ -2599,13 +2599,13 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B155" t="n">
         <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D155" t="n">
         <v>0</v>
@@ -2613,13 +2613,13 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B156" t="n">
         <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D156" t="n">
         <v>0</v>
@@ -2627,13 +2627,13 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B157" t="n">
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D157" t="n">
         <v>0</v>
@@ -2641,13 +2641,13 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B158" t="n">
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D158" t="n">
         <v>0</v>
@@ -2655,13 +2655,13 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B159" t="n">
         <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D159" t="n">
         <v>0</v>
@@ -2669,13 +2669,13 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B160" t="n">
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
@@ -2683,13 +2683,13 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B161" t="n">
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -2697,13 +2697,13 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B162" t="n">
         <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D162" t="n">
         <v>0</v>
@@ -2711,13 +2711,13 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B163" t="n">
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B164" t="n">
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D164" t="n">
         <v>0</v>
@@ -2739,13 +2739,13 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B165" t="n">
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -2753,13 +2753,13 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B166" t="n">
         <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D166" t="n">
         <v>0</v>
@@ -2767,13 +2767,13 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B167" t="n">
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
@@ -2781,13 +2781,13 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B168" t="n">
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
@@ -2795,13 +2795,13 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B169" t="n">
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D169" t="n">
         <v>0</v>
@@ -2809,13 +2809,13 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B170" t="n">
         <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D170" t="n">
         <v>0</v>
@@ -2823,13 +2823,13 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B171" t="n">
         <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D171" t="n">
         <v>0</v>
@@ -2837,13 +2837,13 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B172" t="n">
         <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D172" t="n">
         <v>0</v>
@@ -2851,13 +2851,13 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B173" t="n">
         <v>0</v>
       </c>
       <c r="C173" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D173" t="n">
         <v>0</v>
@@ -2865,13 +2865,13 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B174" t="n">
         <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D174" t="n">
         <v>0</v>
@@ -2879,13 +2879,13 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B175" t="n">
         <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D175" t="n">
         <v>0</v>
@@ -2893,13 +2893,13 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B176" t="n">
         <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D176" t="n">
         <v>0</v>
@@ -2907,13 +2907,13 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B177" t="n">
         <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D177" t="n">
         <v>0</v>
@@ -2921,13 +2921,13 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B178" t="n">
         <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D178" t="n">
         <v>0</v>
@@ -2935,13 +2935,13 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B179" t="n">
         <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D179" t="n">
         <v>0</v>
@@ -2949,13 +2949,13 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B180" t="n">
         <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D180" t="n">
         <v>0</v>
@@ -2963,13 +2963,13 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B181" t="n">
         <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D181" t="n">
         <v>0</v>
@@ -2977,13 +2977,13 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B182" t="n">
         <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D182" t="n">
         <v>0</v>
@@ -2991,13 +2991,13 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B183" t="n">
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D183" t="n">
         <v>0</v>
@@ -3005,13 +3005,13 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B184" t="n">
         <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D184" t="n">
         <v>0</v>
@@ -3019,13 +3019,13 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B185" t="n">
         <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D185" t="n">
         <v>0</v>
@@ -3033,13 +3033,13 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B186" t="n">
         <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D186" t="n">
         <v>0</v>
@@ -3047,13 +3047,13 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B187" t="n">
         <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D187" t="n">
         <v>0</v>
@@ -3061,13 +3061,13 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B188" t="n">
         <v>0</v>
       </c>
       <c r="C188" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D188" t="n">
         <v>0</v>
@@ -3075,13 +3075,13 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B189" t="n">
         <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D189" t="n">
         <v>0</v>
@@ -3089,13 +3089,13 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B190" t="n">
         <v>0</v>
       </c>
       <c r="C190" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D190" t="n">
         <v>0</v>
@@ -3103,13 +3103,13 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B191" t="n">
         <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D191" t="n">
         <v>0</v>
@@ -3117,13 +3117,13 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B192" t="n">
         <v>0</v>
       </c>
       <c r="C192" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D192" t="n">
         <v>0</v>
@@ -3131,13 +3131,13 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B193" t="n">
         <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D193" t="n">
         <v>0</v>
@@ -3145,13 +3145,13 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B194" t="n">
         <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D194" t="n">
         <v>0</v>
@@ -3159,13 +3159,13 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B195" t="n">
         <v>0</v>
       </c>
       <c r="C195" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D195" t="n">
         <v>0</v>
@@ -3173,13 +3173,13 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B196" t="n">
         <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D196" t="n">
         <v>0</v>
@@ -3187,13 +3187,13 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B197" t="n">
         <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D197" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B198" t="n">
         <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D198" t="n">
         <v>0</v>
@@ -3215,13 +3215,13 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B199" t="n">
         <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D199" t="n">
         <v>0</v>
@@ -3229,13 +3229,13 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B200" t="n">
         <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D200" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B201" t="n">
         <v>0</v>
       </c>
       <c r="C201" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D201" t="n">
         <v>0</v>
@@ -3257,13 +3257,13 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B202" t="n">
         <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D202" t="n">
         <v>0</v>
